--- a/data/church_park_cover.xlsx
+++ b/data/church_park_cover.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam.Mahood\projects\church_park\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC49DB2-4570-48B7-B0B5-E9D084DE85CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F2B42-25C8-475D-BC7F-583658CA2128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-65100" yWindow="2580" windowWidth="34245" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_cover" sheetId="1" r:id="rId1"/>
     <sheet name="site_info" sheetId="2" r:id="rId2"/>
     <sheet name="species_list" sheetId="3" r:id="rId3"/>
-    <sheet name="base_cover" sheetId="4" r:id="rId4"/>
+    <sheet name="ground_cover" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -701,7 +701,7 @@
   </sheetPr>
   <dimension ref="A1:AW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2727,7 +2727,9 @@
   </sheetPr>
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
